--- a/data/trans_orig/P23_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P23_R2-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco actualmente, de forma diaria o puntualmente en 2007</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2436,7 +2436,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco actualmente, de forma diaria o puntualmente en 2012</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5079,7 +5079,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco actualmente, de forma diaria o puntualmente en 2016</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7722,7 +7722,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco actualmente, de forma diaria o puntualmente en 2023</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10365,7 +10365,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
